--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R5 Profile for recording functional scores (mRS, NIHSS), using an extension for timing context.</t>
+    <t>Profile for recording functional scores (mRS, NIHSS), using an extension for timing context.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -549,8 +549,8 @@
     <t>Observation.instantiates[x]</t>
   </si>
   <si>
-    <t>canonical(ObservationDefinition)
-Reference(ObservationDefinition)</t>
+    <t>canonical(ObservationDefinition|5.0.0)
+Reference(ObservationDefinition|5.0.0)</t>
   </si>
   <si>
     <t>Instantiates FHIR ObservationDefinition</t>
@@ -575,7 +575,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>Observation.triggeredBy.observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|5.0.0)
 </t>
   </si>
   <si>
@@ -810,7 +810,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -894,7 +894,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -917,7 +917,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -1008,7 +1008,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1129,7 +1129,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1161,7 +1161,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1219,7 +1219,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-8
@@ -1241,7 +1241,7 @@
     <t>Observation.bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(BodyStructure)
+    <t xml:space="preserve">Reference(BodyStructure|5.0.0)
 </t>
   </si>
   <si>
@@ -1272,7 +1272,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|5.0.0</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1284,7 +1284,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|Group)
+    <t xml:space="preserve">Reference(Specimen|5.0.0|Group|5.0.0)
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|5.0.0|DeviceMetric|5.0.0)
 </t>
   </si>
   <si>
@@ -1378,7 +1378,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|5.0.0}
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>Codes identifying the normal value of the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue|5.0.0</t>
   </si>
   <si>
     <t>value:IVL_PQ.normal</t>
@@ -1443,7 +1443,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1476,7 +1476,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|5.0.0</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1517,7 +1517,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|5.0.0|QuestionnaireResponse|5.0.0|MolecularSequence|5.0.0)
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|ImagingSelection|5.0.0|QuestionnaireResponse|5.0.0|Observation|5.0.0|MolecularSequence|5.0.0|GenomicStudy|5.0.0)
 </t>
   </si>
   <si>
@@ -1597,7 +1597,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1986,7 +1986,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2001,7 +2001,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1080,6 +1080,29 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueInteger</t>
+  </si>
+  <si>
+    <t>valueInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://testSK.org/ValueSet/mrs-score-vs</t>
+  </si>
+  <si>
+    <t>obs-7
+obs-6obs-mrs-code</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueQuantity</t>
   </si>
   <si>
@@ -1092,19 +1115,6 @@
   <si>
     <t>obs-7
 obs-6obs-nihss-code</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://testSK.org/ValueSet/mrs-score-vs</t>
-  </si>
-  <si>
-    <t>obs-7
-obs-6obs-mrs-code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1967,7 +1977,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AP65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5965,7 +5975,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -5991,13 +6001,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>322</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>20</v>
@@ -6060,7 +6070,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6087,7 +6097,7 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>105</v>
@@ -6113,12 +6123,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6136,22 +6148,22 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6176,13 +6188,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6200,7 +6212,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6209,7 +6221,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6221,35 +6233,35 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6264,16 +6276,16 @@
         <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6298,13 +6310,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6322,16 +6334,16 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6343,28 +6355,28 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6383,19 +6395,19 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6420,13 +6432,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6444,7 +6456,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6465,24 +6477,24 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6493,7 +6505,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6505,18 +6517,20 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6540,13 +6554,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6564,16 +6578,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6585,24 +6599,24 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6625,16 +6639,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>385</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6660,13 +6674,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6684,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6693,7 +6707,7 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6705,24 +6719,24 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6745,20 +6759,18 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>243</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6782,13 +6794,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6806,7 +6818,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6815,7 +6827,7 @@
         <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
@@ -6830,10 +6842,10 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6841,10 +6853,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6867,18 +6879,20 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>399</v>
+        <v>243</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6902,13 +6916,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6926,7 +6940,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6938,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6947,24 +6961,24 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6987,16 +7001,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7046,7 +7060,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7058,7 +7072,7 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7067,24 +7081,24 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7095,7 +7109,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -7107,20 +7121,18 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>412</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7168,45 +7180,45 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="AO43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>20</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7217,7 +7229,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7229,16 +7241,20 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>191</v>
+        <v>421</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7286,19 +7302,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7310,10 +7326,10 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>195</v>
+        <v>427</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -7321,21 +7337,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7347,17 +7363,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7406,19 +7420,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7441,14 +7455,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7461,26 +7475,24 @@
         <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7528,7 +7540,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7555,7 +7567,7 @@
         <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>20</v>
@@ -7563,42 +7575,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7646,19 +7662,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>428</v>
+        <v>204</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7670,10 +7686,10 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>423</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7681,10 +7697,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7707,13 +7723,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7764,7 +7780,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7773,7 +7789,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7788,10 +7804,10 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7799,10 +7815,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7825,13 +7841,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>243</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7858,13 +7874,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>441</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7882,7 +7898,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7891,7 +7907,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7906,10 +7922,10 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7917,10 +7933,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7946,17 +7962,13 @@
         <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7980,13 +7992,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -8004,7 +8016,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8025,13 +8037,13 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>362</v>
+        <v>446</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -8039,10 +8051,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8053,7 +8065,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -8068,16 +8080,16 @@
         <v>243</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8102,13 +8114,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>376</v>
+        <v>249</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -8126,13 +8138,13 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
@@ -8147,13 +8159,13 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>20</v>
@@ -8161,10 +8173,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8175,7 +8187,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8187,17 +8199,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>461</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8222,13 +8236,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>20</v>
+        <v>461</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8246,13 +8260,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -8267,13 +8281,13 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>465</v>
+        <v>365</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8281,10 +8295,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8307,16 +8321,18 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8364,7 +8380,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8373,7 +8389,7 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8388,10 +8404,10 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>423</v>
+        <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>20</v>
@@ -8399,10 +8415,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8413,7 +8429,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8422,20 +8438,18 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8484,16 +8498,16 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -8508,10 +8522,10 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>209</v>
+        <v>473</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>20</v>
@@ -8519,10 +8533,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8545,16 +8559,16 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8604,7 +8618,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8628,10 +8642,10 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8639,10 +8653,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8665,20 +8679,18 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>487</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8726,7 +8738,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8735,7 +8747,7 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -8750,10 +8762,10 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8761,10 +8773,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8775,7 +8787,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8784,19 +8796,23 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>191</v>
+        <v>487</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8844,19 +8860,19 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>193</v>
+        <v>486</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
@@ -8868,10 +8884,10 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>20</v>
+        <v>491</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>195</v>
+        <v>492</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8879,21 +8895,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8905,17 +8921,15 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8964,19 +8978,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8999,14 +9013,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9019,26 +9033,24 @@
         <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9086,7 +9098,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9113,7 +9125,7 @@
         <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9121,45 +9133,45 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
+        <v>203</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>496</v>
+        <v>157</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9184,13 +9196,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>498</v>
+        <v>20</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9208,34 +9220,34 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>493</v>
+        <v>204</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>499</v>
+        <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>20</v>
@@ -9243,10 +9255,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9254,7 +9266,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>93</v>
@@ -9269,19 +9281,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>325</v>
+        <v>498</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9306,13 +9318,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>20</v>
+        <v>501</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9330,16 +9342,16 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9348,27 +9360,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9388,22 +9400,22 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9428,13 +9440,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9452,7 +9464,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9473,35 +9485,35 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>20</v>
+        <v>506</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9516,16 +9528,16 @@
         <v>243</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
+        <v>509</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>356</v>
+        <v>510</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9550,13 +9562,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9574,13 +9586,13 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
@@ -9595,28 +9607,28 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9635,19 +9647,19 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>510</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>511</v>
+        <v>358</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9672,13 +9684,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9696,7 +9708,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9717,20 +9729,142 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AP64" t="s" s="2">
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP64">
+  <autoFilter ref="A1:AP65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9740,7 +9874,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3111,7 +3111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>147</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>220</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>242</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>254</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>267</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>283</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>294</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>334</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>337</v>
       </c>
@@ -9865,12 +9865,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP65">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-functional-score-observation-profile.xlsx
+++ b/StructureDefinition-functional-score-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
